--- a/테스트 데이터(충방전량).xlsx
+++ b/테스트 데이터(충방전량).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSW-INTEL\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\lvdc_real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A690B8-805D-49B7-89F6-B65C1AD50424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14080A8-A696-4F30-8EAD-A07B715C52C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41680" yWindow="-300" windowWidth="15490" windowHeight="16780" xr2:uid="{E7CE9087-681E-454F-A6A4-4032C5666E51}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E7CE9087-681E-454F-A6A4-4032C5666E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -66,12 +66,32 @@
     <t>S_normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>acdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충방전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피크치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,16 +107,333 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -104,21 +441,295 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,19 +1042,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB92E162-E24A-4704-B5E7-161DC6670F41}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +1082,26 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -495,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I2">
         <f>G2*4/15</f>
@@ -503,10 +1132,26 @@
       </c>
       <c r="J2">
         <f>H2*4/15</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>39.26</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>$U$1-P2</f>
+        <v>108.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -529,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I34" si="0">G3*4/15</f>
@@ -537,10 +1182,26 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J34" si="1">H3*4/15</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>30.16</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <f>$U$1-P3</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -563,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -571,10 +1232,26 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>43.16</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <f>$U$1-P4</f>
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -597,18 +1274,34 @@
         <v>44.79</v>
       </c>
       <c r="H5">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f>G5*4/15</f>
         <v>11.943999999999999</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>44.33</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <f>$U$1-P5</f>
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -641,8 +1334,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>71.2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>70.61</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <f>$U$1-P6</f>
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -675,8 +1384,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>87.25</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <f>$U$1-P7</f>
+        <v>63.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -709,8 +1434,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2">
+        <v>88.6</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>87.93</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S8" s="2">
+        <f>$U$1-P8</f>
+        <v>61.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -743,8 +1484,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9" s="2">
+        <v>97.9</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>111.51</v>
+      </c>
+      <c r="R9" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="S9" s="2">
+        <f>$U$1-P9</f>
+        <v>52.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -777,8 +1534,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O10" s="2">
+        <v>8</v>
+      </c>
+      <c r="P10" s="2">
+        <v>126.6</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>158.83000000000001</v>
+      </c>
+      <c r="R10" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="S10" s="2">
+        <f>$U$1-P10</f>
+        <v>23.400000000000006</v>
+      </c>
+      <c r="T10">
+        <f>SUM(S2:S25)</f>
+        <v>877.49999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -811,8 +1588,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O11" s="2">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2">
+        <v>129.5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>203.37</v>
+      </c>
+      <c r="R11" s="2">
+        <v>72.7</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -845,8 +1635,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O12" s="2">
+        <v>10</v>
+      </c>
+      <c r="P12" s="2">
+        <v>165.2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>226.65</v>
+      </c>
+      <c r="R12" s="2">
+        <v>59.2</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -879,8 +1682,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O13" s="2">
+        <v>11</v>
+      </c>
+      <c r="P13" s="2">
+        <v>199.2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>233.84</v>
+      </c>
+      <c r="R13" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -913,8 +1729,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O14" s="2">
+        <v>12</v>
+      </c>
+      <c r="P14" s="2">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>232.58</v>
+      </c>
+      <c r="R14" s="2">
+        <v>48</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -937,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -945,10 +1774,23 @@
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O15" s="2">
+        <v>13</v>
+      </c>
+      <c r="P15" s="2">
+        <v>185.6</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>231.98</v>
+      </c>
+      <c r="R15" s="2">
+        <v>48</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -971,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
@@ -979,10 +1821,23 @@
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O16" s="2">
+        <v>14</v>
+      </c>
+      <c r="P16" s="2">
+        <v>181.9</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>237.64</v>
+      </c>
+      <c r="R16" s="2">
+        <v>54.9</v>
+      </c>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1005,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -1013,10 +1868,23 @@
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O17" s="2">
+        <v>15</v>
+      </c>
+      <c r="P17" s="2">
+        <v>198.1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>232.95</v>
+      </c>
+      <c r="R17" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1039,18 +1907,34 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>120</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="M18">
         <v>150</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O18" s="2">
+        <v>16</v>
+      </c>
+      <c r="P18" s="2">
+        <v>222</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>231.47</v>
+      </c>
+      <c r="R18" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1073,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -1081,10 +1965,23 @@
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O19" s="2">
+        <v>17</v>
+      </c>
+      <c r="P19" s="2">
+        <v>214.2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>216.56</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1107,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -1115,10 +2012,23 @@
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="O20" s="2">
+        <v>18</v>
+      </c>
+      <c r="P20" s="2">
+        <v>193</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>190.46</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1151,8 +2061,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" s="2"/>
+      <c r="O21" s="2">
+        <v>19</v>
+      </c>
+      <c r="P21" s="2">
+        <v>184.3</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>182.45</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1185,8 +2109,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" s="2"/>
+      <c r="O22" s="2">
+        <v>20</v>
+      </c>
+      <c r="P22" s="2">
+        <v>168.9</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>166.47</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1219,8 +2157,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L23" s="2"/>
+      <c r="O23" s="2">
+        <v>21</v>
+      </c>
+      <c r="P23" s="2">
+        <v>125.2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>121.48</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1253,8 +2205,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L24" s="2"/>
+      <c r="O24" s="2">
+        <v>22</v>
+      </c>
+      <c r="P24" s="2">
+        <v>88.7</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>89.4</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <f>$U$1-P24</f>
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1287,8 +2256,28 @@
         <f t="shared" si="1"/>
         <v>-9.0613333333333319</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L25" s="2">
+        <f t="shared" ref="L23:L32" si="2">$M$18-(C25-D25)</f>
+        <v>-33.97999999999999</v>
+      </c>
+      <c r="O25" s="2">
+        <v>23</v>
+      </c>
+      <c r="P25" s="2">
+        <v>57.1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>58.18</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <f>$U$1-P25</f>
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1321,8 +2310,12 @@
         <f t="shared" si="1"/>
         <v>-8.7306666666666679</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L26" s="2">
+        <f t="shared" si="2"/>
+        <v>-32.739999999999981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1355,8 +2348,12 @@
         <f t="shared" si="1"/>
         <v>-12.706666666666667</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L27" s="2">
+        <f t="shared" si="2"/>
+        <v>-47.649999999999977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1389,8 +2386,12 @@
         <f t="shared" si="1"/>
         <v>-19.271999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L28" s="2">
+        <f t="shared" si="2"/>
+        <v>-72.27000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1423,8 +2424,12 @@
         <f t="shared" si="1"/>
         <v>-17.722666666666665</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L29" s="2">
+        <f t="shared" si="2"/>
+        <v>-66.460000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1457,8 +2462,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1491,8 +2497,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1525,8 +2532,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1559,8 +2567,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <f>SUM(G25:G29)</f>
+        <v>-100</v>
+      </c>
+      <c r="L33">
+        <f>SUM(L20:L32)</f>
+        <v>-253.09999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1583,19 +2599,18 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/테스트 데이터(충방전량).xlsx
+++ b/테스트 데이터(충방전량).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\lvdc_real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14080A8-A696-4F30-8EAD-A07B715C52C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBCF868-2563-475F-829F-31D1E1EA8E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E7CE9087-681E-454F-A6A4-4032C5666E51}"/>
   </bookViews>
@@ -34,22 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>workday</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>pv</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,7 +52,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acdc</t>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_demand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workday</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,15 +80,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충방전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피크치</t>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +683,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1042,66 +1042,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB92E162-E24A-4704-B5E7-161DC6670F41}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08203125" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1127,31 +1124,31 @@
         <v>120</v>
       </c>
       <c r="I2">
+        <v>150</v>
+      </c>
+      <c r="J2">
+        <v>-29.88</v>
+      </c>
+      <c r="M2">
         <f>G2*4/15</f>
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <f>H2*4/15</f>
         <v>32</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>41.2</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>39.26</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f>$U$1-P2</f>
-        <v>108.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+        <f>I2*4/15</f>
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <f>J2*4/15</f>
+        <v>-7.968</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1177,31 +1174,32 @@
         <v>120</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I34" si="0">G3*4/15</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" si="1">H3*4/15</f>
+        <v>-29.58</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M33" si="0">G3*4/15</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N33" si="1">H3*4/15</f>
         <v>32</v>
       </c>
-      <c r="O3">
-        <v>1</v>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O34" si="2">I3*4/15</f>
+        <v>40</v>
       </c>
       <c r="P3" s="2">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>30.16</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <f>$U$1-P3</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+        <f t="shared" ref="P3:P34" si="3">J3*4/15</f>
+        <v>-7.8879999999999999</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1227,31 +1225,32 @@
         <v>120</v>
       </c>
       <c r="I4">
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <v>-8.43</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O4">
-        <v>2</v>
+      <c r="O4" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="P4" s="2">
-        <v>42.9</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>43.16</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <f>$U$1-P4</f>
-        <v>107.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>-2.2479999999999998</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1276,32 +1275,33 @@
       <c r="H5">
         <v>120</v>
       </c>
-      <c r="I5">
-        <f>G5*4/15</f>
+      <c r="I5" s="2">
+        <v>44.79</v>
+      </c>
+      <c r="J5">
+        <v>44.8</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
         <v>11.943999999999999</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O5">
-        <v>3</v>
+      <c r="O5" s="2">
+        <f t="shared" si="2"/>
+        <v>11.943999999999999</v>
       </c>
       <c r="P5" s="2">
-        <v>43.2</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>44.33</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <f>$U$1-P5</f>
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>11.946666666666665</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1326,32 +1326,33 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
+        <v>87.26</v>
+      </c>
+      <c r="J6">
+        <v>87.26</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
         <v>23.269333333333336</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>4</v>
+      <c r="O6" s="2">
+        <f t="shared" si="2"/>
+        <v>23.269333333333336</v>
       </c>
       <c r="P6" s="2">
-        <v>71.2</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>70.61</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <f>$U$1-P6</f>
-        <v>78.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>23.269333333333336</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1376,32 +1377,33 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
+        <v>103.04</v>
+      </c>
+      <c r="J7">
+        <v>133</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
         <v>27.477333333333334</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>5</v>
+      <c r="O7" s="2">
+        <f t="shared" si="2"/>
+        <v>27.477333333333334</v>
       </c>
       <c r="P7" s="2">
-        <v>86.1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>87.25</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <f>$U$1-P7</f>
-        <v>63.900000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>35.466666666666669</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1427,31 +1429,32 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>130.16999999999999</v>
+      </c>
+      <c r="J8">
+        <v>160.1</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
         <v>34.711999999999996</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>6</v>
+      <c r="O8" s="2">
+        <f t="shared" si="2"/>
+        <v>34.711999999999996</v>
       </c>
       <c r="P8" s="2">
-        <v>88.6</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>87.93</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S8" s="2">
-        <f>$U$1-P8</f>
-        <v>61.400000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>42.693333333333335</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1476,32 +1479,33 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
+        <v>143.69</v>
+      </c>
+      <c r="J9">
+        <v>173.6</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
         <v>38.31733333333333</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>7</v>
+      <c r="O9" s="2">
+        <f t="shared" si="2"/>
+        <v>38.31733333333333</v>
       </c>
       <c r="P9" s="2">
-        <v>97.9</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>111.51</v>
-      </c>
-      <c r="R9" s="2">
-        <v>10.6</v>
-      </c>
-      <c r="S9" s="2">
-        <f>$U$1-P9</f>
-        <v>52.099999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>46.293333333333329</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1527,35 +1531,32 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <v>131.57</v>
+      </c>
+      <c r="J10">
+        <v>161.5</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
         <v>35.085333333333331</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>35.085333333333331</v>
       </c>
       <c r="P10" s="2">
-        <v>126.6</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>158.83000000000001</v>
-      </c>
-      <c r="R10" s="2">
-        <v>28.3</v>
-      </c>
-      <c r="S10" s="2">
-        <f>$U$1-P10</f>
-        <v>23.400000000000006</v>
-      </c>
-      <c r="T10">
-        <f>SUM(S2:S25)</f>
-        <v>877.49999999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>43.06666666666667</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1581,28 +1582,32 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <v>129.4</v>
+      </c>
+      <c r="J11">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
         <v>34.503999999999998</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>34.506666666666668</v>
       </c>
       <c r="P11" s="2">
-        <v>129.5</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>203.37</v>
-      </c>
-      <c r="R11" s="2">
-        <v>72.7</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>42.480000000000004</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1628,28 +1633,32 @@
         <v>0</v>
       </c>
       <c r="I12">
+        <v>83.64</v>
+      </c>
+      <c r="J12">
+        <v>113.6</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
         <v>22.303999999999998</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>22.303999999999998</v>
       </c>
       <c r="P12" s="2">
-        <v>165.2</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>226.65</v>
-      </c>
-      <c r="R12" s="2">
-        <v>59.2</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>30.293333333333333</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1675,28 +1684,32 @@
         <v>0</v>
       </c>
       <c r="I13">
+        <v>33.44</v>
+      </c>
+      <c r="J13">
+        <v>33.44</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
         <v>8.9173333333333336</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>8.9173333333333336</v>
       </c>
       <c r="P13" s="2">
-        <v>199.2</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>233.84</v>
-      </c>
-      <c r="R13" s="2">
-        <v>36.200000000000003</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>8.9173333333333336</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1722,28 +1735,32 @@
         <v>0</v>
       </c>
       <c r="I14">
+        <v>-14.76</v>
+      </c>
+      <c r="J14">
+        <v>-14.76</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>-3.9359999999999999</v>
       </c>
       <c r="P14" s="2">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>232.58</v>
-      </c>
-      <c r="R14" s="2">
-        <v>48</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>-3.9359999999999999</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1769,28 +1786,32 @@
         <v>120</v>
       </c>
       <c r="I15">
+        <v>150</v>
+      </c>
+      <c r="J15">
+        <v>-44.33</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="O15" s="2">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="P15" s="2">
-        <v>185.6</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>231.98</v>
-      </c>
-      <c r="R15" s="2">
-        <v>48</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>-11.821333333333333</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1815,29 +1836,33 @@
       <c r="H16">
         <v>120</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
+        <v>150</v>
+      </c>
+      <c r="J16">
+        <v>-70.61</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="O16" s="2">
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="P16" s="2">
-        <v>181.9</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>237.64</v>
-      </c>
-      <c r="R16" s="2">
-        <v>54.9</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>-18.829333333333334</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1862,29 +1887,37 @@
       <c r="H17">
         <v>120</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
+        <v>150</v>
+      </c>
+      <c r="J17">
+        <v>-87.25</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="O17" s="2">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="P17" s="2">
-        <v>198.1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>232.95</v>
-      </c>
-      <c r="R17" s="2">
-        <v>35.299999999999997</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>-23.266666666666666</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T17" s="1"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1909,32 +1942,37 @@
       <c r="H18">
         <v>120</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
+        <v>150</v>
+      </c>
+      <c r="J18">
+        <v>-87.83</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="M18">
-        <v>150</v>
-      </c>
       <c r="O18" s="2">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="P18" s="2">
-        <v>222</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>231.47</v>
-      </c>
-      <c r="R18" s="2">
-        <v>9.1999999999999993</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>-23.421333333333333</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T18" s="1"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1959,29 +1997,37 @@
       <c r="H19">
         <v>120</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <v>-100.91</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="O19" s="2">
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="P19" s="2">
-        <v>214.2</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>216.56</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.1</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>-26.909333333333333</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T19" s="1"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2007,28 +2053,36 @@
         <v>120</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>-130.53</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="N20">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="O20" s="2">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>193</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>190.46</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>-34.808</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T20" s="1"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2054,29 +2108,36 @@
         <v>0</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>-130.66999999999999</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="0"/>
         <v>-5.333333333333333</v>
       </c>
-      <c r="J21">
+      <c r="N21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="2"/>
       <c r="O21" s="2">
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>184.3</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>182.45</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>-34.845333333333329</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T21" s="1"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2102,29 +2163,36 @@
         <v>0</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>59.2</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="0"/>
         <v>-5.333333333333333</v>
       </c>
-      <c r="J22">
+      <c r="N22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="2"/>
       <c r="O22" s="2">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>168.9</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>166.47</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>15.786666666666667</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T22" s="1"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2150,29 +2218,36 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <v>-197.64</v>
+      </c>
+      <c r="J23">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="0"/>
         <v>-5.333333333333333</v>
       </c>
-      <c r="J23">
+      <c r="N23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="2"/>
       <c r="O23" s="2">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>-52.703999999999994</v>
       </c>
       <c r="P23" s="2">
-        <v>125.2</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>121.48</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>9.6533333333333342</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T23" s="1"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2198,32 +2273,36 @@
         <v>0</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>48</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="0"/>
         <v>-5.333333333333333</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="2"/>
       <c r="O24" s="2">
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>88.7</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>89.4</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2">
-        <f>$U$1-P24</f>
-        <v>61.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2249,35 +2328,36 @@
         <v>-33.979999999999997</v>
       </c>
       <c r="I25">
+        <v>-183.98</v>
+      </c>
+      <c r="J25">
+        <v>48</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="0"/>
         <v>-5.333333333333333</v>
       </c>
-      <c r="J25">
+      <c r="N25">
         <f t="shared" si="1"/>
         <v>-9.0613333333333319</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" ref="L23:L32" si="2">$M$18-(C25-D25)</f>
-        <v>-33.97999999999999</v>
-      </c>
       <c r="O25" s="2">
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>-49.06133333333333</v>
       </c>
       <c r="P25" s="2">
-        <v>57.1</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>58.18</v>
-      </c>
-      <c r="R25" s="2">
-        <v>0</v>
-      </c>
-      <c r="S25" s="2">
-        <f>$U$1-P25</f>
-        <v>92.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2303,19 +2383,34 @@
         <v>-32.74</v>
       </c>
       <c r="I26">
+        <v>-182.74</v>
+      </c>
+      <c r="J26">
+        <v>54.9</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="0"/>
         <v>-5.333333333333333</v>
       </c>
-      <c r="J26">
+      <c r="N26">
         <f t="shared" si="1"/>
         <v>-8.7306666666666679</v>
       </c>
-      <c r="L26" s="2">
+      <c r="O26" s="2">
         <f t="shared" si="2"/>
-        <v>-32.739999999999981</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-48.730666666666671</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="3"/>
+        <v>14.639999999999999</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2341,19 +2436,34 @@
         <v>-47.65</v>
       </c>
       <c r="I27">
+        <v>-197.65</v>
+      </c>
+      <c r="J27">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="0"/>
         <v>-5.333333333333333</v>
       </c>
-      <c r="J27">
+      <c r="N27">
         <f t="shared" si="1"/>
         <v>-12.706666666666667</v>
       </c>
-      <c r="L27" s="2">
+      <c r="O27" s="2">
         <f t="shared" si="2"/>
-        <v>-47.649999999999977</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-52.706666666666671</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="3"/>
+        <v>9.4133333333333322</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2379,19 +2489,34 @@
         <v>-72.27</v>
       </c>
       <c r="I28">
+        <v>-222.27</v>
+      </c>
+      <c r="J28">
+        <v>-222.27</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="0"/>
         <v>-5.333333333333333</v>
       </c>
-      <c r="J28">
+      <c r="N28">
         <f t="shared" si="1"/>
         <v>-19.271999999999998</v>
       </c>
-      <c r="L28" s="2">
+      <c r="O28" s="2">
         <f t="shared" si="2"/>
-        <v>-72.27000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-59.272000000000006</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="3"/>
+        <v>-59.272000000000006</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2417,19 +2542,34 @@
         <v>-66.459999999999994</v>
       </c>
       <c r="I29">
+        <v>-216.46</v>
+      </c>
+      <c r="J29">
+        <v>-216.46</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="0"/>
         <v>-5.333333333333333</v>
       </c>
-      <c r="J29">
+      <c r="N29">
         <f t="shared" si="1"/>
         <v>-17.722666666666665</v>
       </c>
-      <c r="L29" s="2">
+      <c r="O29" s="2">
         <f t="shared" si="2"/>
-        <v>-66.460000000000008</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+        <v>-57.722666666666669</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="3"/>
+        <v>-57.722666666666669</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2455,16 +2595,34 @@
         <v>0</v>
       </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>-190.46</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="N30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="O30" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="3"/>
+        <v>-50.789333333333339</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2490,16 +2648,34 @@
         <v>0</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>-182.45</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="N31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="O31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="3"/>
+        <v>-48.653333333333329</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2525,16 +2701,34 @@
         <v>0</v>
       </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>-166.47</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="N32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="O32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="3"/>
+        <v>-44.392000000000003</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2560,23 +2754,29 @@
         <v>0</v>
       </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>-121.48</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="N33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K33">
-        <f>SUM(G25:G29)</f>
-        <v>-100</v>
-      </c>
-      <c r="L33">
-        <f>SUM(L20:L32)</f>
-        <v>-253.09999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="O33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="3"/>
+        <v>-32.394666666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2602,10 +2802,674 @@
         <v>120</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J34">
+        <v>-89.4</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <v>32</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="3"/>
+        <v>-23.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B45" s="1">
+        <v>45222.489583680559</v>
+      </c>
+      <c r="C45" s="2">
+        <v>29.93</v>
+      </c>
+      <c r="D45" s="2">
+        <v>161.5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2">
+        <v>131.57</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>131.57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B46" s="1">
+        <v>45222.500000405096</v>
+      </c>
+      <c r="C46" s="2">
+        <v>29.91</v>
+      </c>
+      <c r="D46" s="2">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>14</v>
+      </c>
+      <c r="G46" s="2">
+        <v>129.38999999999999</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B47" s="1">
+        <v>45222.510417129626</v>
+      </c>
+      <c r="C47" s="2">
+        <v>29.96</v>
+      </c>
+      <c r="D47" s="2">
+        <v>113.6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2">
+        <v>83.64</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>83.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B48" s="1">
+        <v>45222.520833854163</v>
+      </c>
+      <c r="C48" s="2">
+        <v>29.96</v>
+      </c>
+      <c r="D48" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2">
+        <v>33.44</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B49" s="1">
+        <v>45222.531250578701</v>
+      </c>
+      <c r="C49" s="2">
+        <v>29.96</v>
+      </c>
+      <c r="D49" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>17</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>-14.76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B50" s="1">
+        <v>45222.541667303238</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44.33</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>120</v>
+      </c>
+      <c r="I50" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B51" s="1">
+        <v>45222.552084027775</v>
+      </c>
+      <c r="C51" s="2">
+        <v>70.61</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>120</v>
+      </c>
+      <c r="I51" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B52" s="1">
+        <v>45222.562500752312</v>
+      </c>
+      <c r="C52" s="2">
+        <v>87.25</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>120</v>
+      </c>
+      <c r="I52" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B53" s="1">
+        <v>45222.572917476849</v>
+      </c>
+      <c r="C53" s="2">
+        <v>87.93</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>120</v>
+      </c>
+      <c r="I53" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B54" s="1">
+        <v>45222.583334201387</v>
+      </c>
+      <c r="C54" s="2">
+        <v>111.51</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>120</v>
+      </c>
+      <c r="I54" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B59" s="1">
+        <v>45222.593750925924</v>
+      </c>
+      <c r="C59" s="2">
+        <v>158.83000000000001</v>
+      </c>
+      <c r="D59" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>120</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B60" s="1">
+        <v>45222.604167650461</v>
+      </c>
+      <c r="C60" s="2">
+        <v>203.37</v>
+      </c>
+      <c r="D60" s="2">
+        <v>72.7</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>9</v>
+      </c>
+      <c r="G60" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B61" s="1">
+        <v>45222.614584374998</v>
+      </c>
+      <c r="C61" s="2">
+        <v>226.65</v>
+      </c>
+      <c r="D61" s="2">
+        <v>59.2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B62" s="1">
+        <v>45222.625001099535</v>
+      </c>
+      <c r="C62" s="2">
+        <v>233.84</v>
+      </c>
+      <c r="D62" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>11</v>
+      </c>
+      <c r="G62" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>-197.64</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B63" s="1">
+        <v>45222.635417824073</v>
+      </c>
+      <c r="C63" s="2">
+        <v>232.58</v>
+      </c>
+      <c r="D63" s="2">
+        <v>48</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>12</v>
+      </c>
+      <c r="G63" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B64" s="1">
+        <v>45222.64583454861</v>
+      </c>
+      <c r="C64" s="2">
+        <v>231.98</v>
+      </c>
+      <c r="D64" s="2">
+        <v>48</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>13</v>
+      </c>
+      <c r="G64" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H64" s="2">
+        <v>-33.979999999999997</v>
+      </c>
+      <c r="I64" s="2">
+        <v>-183.98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B65" s="1">
+        <v>45222.656251273147</v>
+      </c>
+      <c r="C65" s="2">
+        <v>237.64</v>
+      </c>
+      <c r="D65" s="2">
+        <v>54.9</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>14</v>
+      </c>
+      <c r="G65" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H65" s="2">
+        <v>-32.74</v>
+      </c>
+      <c r="I65" s="2">
+        <v>-182.74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B66" s="1">
+        <v>45222.666667997684</v>
+      </c>
+      <c r="C66" s="2">
+        <v>232.95</v>
+      </c>
+      <c r="D66" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>15</v>
+      </c>
+      <c r="G66" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H66" s="2">
+        <v>-47.65</v>
+      </c>
+      <c r="I66" s="2">
+        <v>-197.65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B67" s="1">
+        <v>45222.677084722221</v>
+      </c>
+      <c r="C67" s="2">
+        <v>231.47</v>
+      </c>
+      <c r="D67" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>16</v>
+      </c>
+      <c r="G67" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H67" s="2">
+        <v>-72.27</v>
+      </c>
+      <c r="I67" s="2">
+        <v>-222.27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B68" s="1">
+        <v>45222.687501446759</v>
+      </c>
+      <c r="C68" s="2">
+        <v>216.56</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>17</v>
+      </c>
+      <c r="G68" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H68" s="2">
+        <v>-66.459999999999994</v>
+      </c>
+      <c r="I68" s="2">
+        <v>-216.46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B69" s="1">
+        <v>45222.697918171296</v>
+      </c>
+      <c r="C69" s="2">
+        <v>190.46</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>18</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B70" s="1">
+        <v>45222.708334895833</v>
+      </c>
+      <c r="C70" s="2">
+        <v>182.45</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>19</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B71" s="1">
+        <v>45222.71875162037</v>
+      </c>
+      <c r="C71" s="2">
+        <v>166.47</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>20</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B72" s="1">
+        <v>45222.729168344908</v>
+      </c>
+      <c r="C72" s="2">
+        <v>121.48</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>21</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B73" s="1">
+        <v>45222.739585069445</v>
+      </c>
+      <c r="C73" s="2">
+        <v>89.4</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>22</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>120</v>
+      </c>
+      <c r="I73" s="2">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
